--- a/2조_RFP.xlsx
+++ b/2조_RFP.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sooy_git\Safebusfinalproject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC3F46-6535-4B60-8036-942AB7412CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11655"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,13 +105,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 최종 목표 : 어린이 통학 차량을 위한 통합 안전 관제 시스템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. "문끼임 센서, 안전벨트 센서, 좌석 무게 센서를 통해 차량 내 잔류 인원을 확인할 수 있어야 함."
 - 주행 종료 후 어린이 잔류 인원을 확인 할 수 있는 센서 모듈 개발
   * 운전자가 "주정차시" 시트의 무게감지로 전체 잔류인원을 파악할 수 있는 BCM 활용모듈 개발
   * 잔류인원 발생 시 악셀 작동을 금지하는 인터페이스 설계
 - 주행 시작 전 안전 벨트 착용 유무에 따른 대응이 가능한 인터페이스 설계
   * 안전 벨트 착용 유무에 따른 경고 및 표시등을 위한 모듈 구조 설계
-  * 운전 시작 전 전좌석 안전 벨트 미착용시 "속도를 제한하고 경고음 발생" 모듈 개발
+  * 운전 시작 전 전좌석 안전 벨트 미착용시 "속도를 제한하고 경고음 발생" 모듈 개발 
 - 주행 시작 전 문끼임 확인을 통해 주행가능여부를 알려주는 모듈 개발
   * 문끼임 감지 시 알림 발생과 악셀 작동을 금지하는 모듈 구조
 2. "차량 정보 서비스 앱 제공을 통해 학부모들에게 안심을 줄 수 있어야 함."
@@ -119,15 +129,11 @@
   * 적정 온/습도가 아닐 때 모듈이 조절하도록 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t xml:space="preserve"> 최종 목표 : 어린이 통학 차량을 위한 통합 안전 관제 시스템 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,11 +439,42 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{FFAF8559-EB76-47A1-9751-DC328390B0DA}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -486,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,9 +556,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,6 +608,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -729,23 +800,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:K20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -754,7 +825,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -776,7 +847,7 @@
       </c>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -794,7 +865,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -810,7 +881,7 @@
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -826,7 +897,7 @@
       <c r="J5" s="25"/>
       <c r="K5" s="26"/>
     </row>
-    <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -842,7 +913,7 @@
       <c r="J6" s="25"/>
       <c r="K6" s="26"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="27" t="s">
         <v>6</v>
       </c>
@@ -858,7 +929,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
       <c r="D8" s="20"/>
@@ -870,7 +941,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -884,7 +955,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
@@ -898,7 +969,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -910,7 +981,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="19"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -922,7 +993,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -934,7 +1005,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="19"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -946,7 +1017,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -958,7 +1029,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="19"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -970,7 +1041,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="19"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -982,7 +1053,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="19"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -994,7 +1065,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="20"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1006,12 +1077,12 @@
       <c r="J19" s="4"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1022,9 +1093,9 @@
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1036,7 +1107,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1048,7 +1119,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1060,7 +1131,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1072,7 +1143,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1084,7 +1155,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1096,7 +1167,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1108,7 +1179,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1120,7 +1191,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1132,7 +1203,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1144,7 +1215,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1156,7 +1227,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1168,7 +1239,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1180,7 +1251,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1192,7 +1263,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1204,7 +1275,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1216,7 +1287,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1228,7 +1299,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1240,7 +1311,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1252,7 +1323,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1264,7 +1335,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1276,7 +1347,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1288,7 +1359,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1300,7 +1371,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1312,7 +1383,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1324,7 +1395,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1336,7 +1407,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1348,7 +1419,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1360,7 +1431,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1372,7 +1443,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1384,7 +1455,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -1396,7 +1467,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -1408,7 +1479,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -1441,17 +1512,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1459,12 +1530,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
